--- a/biology/Microbiologie/Polycycla/Polycycla.xlsx
+++ b/biology/Microbiologie/Polycycla/Polycycla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polycyclidae
 Polycycla, unique représentant de la famille des Polycyclidae, est un genre de Ciliés de l’ordre des Peritrichida (classe des Oligohymenophorea).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Polycycla se compose du préfixe poly-, « plusieurs », et du suffixe -cycla, « cercle », probablement en référence à la structure ciliaire de ce cilié.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Polycycla ont une taille petite (&lt; 80 µm). Leur forme est conique, effilée au sommet, avec des anneaux pelliculaires autour du corps. Ils présentent un disque adhésif muni de 35 à 60 denticules lisses, densément liés, de forme simple, entourant la scopule avec des cils vibratiles. On y observe une ou plusieurs bande(s) trocale(s), distribuées en deux ceintures distinctes. La ciliature buccale est profondément invaginée et donc relativement peu visible, formant une spirale d’environ 360°, et d’un rayon très réduit. Leur macronoyau est en forme de ruban, formant un « L ». Micronoyau, vacuole contractile et cytoprocte n’ont pas été observés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Polycycla ont une taille petite (&lt; 80 µm). Leur forme est conique, effilée au sommet, avec des anneaux pelliculaires autour du corps. Ils présentent un disque adhésif muni de 35 à 60 denticules lisses, densément liés, de forme simple, entourant la scopule avec des cils vibratiles. On y observe une ou plusieurs bande(s) trocale(s), distribuées en deux ceintures distinctes. La ciliature buccale est profondément invaginée et donc relativement peu visible, formant une spirale d’environ 360°, et d’un rayon très réduit. Leur macronoyau est en forme de ruban, formant un « L ». Micronoyau, vacuole contractile et cytoprocte n’ont pas été observés.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Polycycla vivent en milieu marin, comme endocommensaux dans le tube digestif d'holothuries (échinodermes), notamment chez le genre Synapta[1].
-Ce genre a aussi été décrit chez une holothurie africaine du genre Roweia[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Polycycla vivent en milieu marin, comme endocommensaux dans le tube digestif d'holothuries (échinodermes), notamment chez le genre Synapta.
+Ce genre a aussi été décrit chez une holothurie africaine du genre Roweia.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (19 janvier 2024)[3] : aucune espèce référencée
-Selon The Taxonomicon  (19 janvier 2024)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (19 janvier 2024) : aucune espèce référencée
+Selon The Taxonomicon  (19 janvier 2024) :
 Polycycla discophora Poljansky, 1951 espèce type
 Polycycla synaptae Cuénot</t>
         </is>
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Poljansky (d), 1951[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Poljansky (d), 1951.
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(ru) G. Poljansky, « [On some parasitic infusoria of marine molluscs and holothurians] », Mag. Parasit., Moscou, 1951, vol. 13, p. 355-370.
 (ru) G. Poljansky, « [Intestinal infusoria of sea urchins] », Mag. Parasit., Moscou, 1951, vol. 13, p. 371-393.</t>
